--- a/FEMM Simulations/Data/WallThickness 2019_10_16 12_12/7mmCoil_192T_156A_swWallThickness.xlsx
+++ b/FEMM Simulations/Data/WallThickness 2019_10_16 12_12/7mmCoil_192T_156A_swWallThickness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekultho\Documents\Personal\CG 490\FEMM Simulations\Data\WallThickness 2019_10_16 12_12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323122C-3A62-4603-B8F0-1AEEF30E3AD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B2D8C-D7D3-4F20-BA1A-E344AB4EDA26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57708" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,25 @@
     <t>Position [cm]</t>
   </si>
   <si>
-    <t>0.635 cm Force [N]</t>
+    <t>2mm Wall</t>
   </si>
   <si>
-    <t>0.735 cm Force [N]</t>
+    <t>3 mm Wal</t>
   </si>
   <si>
-    <t>0.835 cm Force [N]</t>
+    <t>1 mm Wall</t>
   </si>
   <si>
-    <t>0.935 cm Force [N]</t>
+    <t>0 mm Wall</t>
   </si>
   <si>
-    <t>1.0350000000000001 cm Force [N]</t>
+    <t>4 mm Wall</t>
   </si>
   <si>
-    <t>1.135 cm Force [N]</t>
+    <t>5 mm Wall</t>
   </si>
   <si>
-    <t>1.235 cm Force [N]</t>
+    <t>6 mm Wall</t>
   </si>
 </sst>
 </file>
@@ -133,16 +133,33 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Firing Tube Wall Thickness</a:t>
+              <a:t>Force vs. Position</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Swept: Barrel</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effects on Force</a:t>
+              <a:t> Thickness</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40529519187922902"/>
+          <c:y val="1.7095810104028965E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -174,7 +191,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2110220766074512E-2"/>
+          <c:y val="0.13240469208211145"/>
+          <c:w val="0.90464134205991675"/>
+          <c:h val="0.74516140774374018"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -187,7 +214,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.635 cm Force [N]</c:v>
+                  <c:v>0 mm Wall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -346,7 +373,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.735 cm Force [N]</c:v>
+                  <c:v>1 mm Wall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -505,7 +532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.835 cm Force [N]</c:v>
+                  <c:v>2mm Wall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -664,7 +691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.935 cm Force [N]</c:v>
+                  <c:v>3 mm Wal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -823,7 +850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0350000000000001 cm Force [N]</c:v>
+                  <c:v>4 mm Wall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -982,7 +1009,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.135 cm Force [N]</c:v>
+                  <c:v>5 mm Wall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1141,7 +1168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.235 cm Force [N]</c:v>
+                  <c:v>6 mm Wall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1312,6 +1339,8 @@
         <c:axId val="584862632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1349,16 +1378,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Position of start of projectile</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> [cm]</a:t>
+                  <a:t>Forward Position [cm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42345207257589534"/>
+              <c:y val="0.9506230709431116"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1433,6 +1466,7 @@
         <c:axId val="584865912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1476,6 +1510,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2708787218591141E-2"/>
+              <c:y val="0.47625845706236869"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1555,15 +1597,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.84356055222339088"/>
-          <c:w val="0.9642867988608862"/>
-          <c:h val="0.13838890626036363"/>
+          <c:x val="0.79621409660393749"/>
+          <c:y val="9.5618491236982489E-2"/>
+          <c:w val="0.11360025654300573"/>
+          <c:h val="0.28741077073395022"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2199,16 +2241,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2560,7 +2602,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2576,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
